--- a/public/text/主题结算数据录入模板.xlsx
+++ b/public/text/主题结算数据录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23415" windowHeight="13140"/>
+    <workbookView windowWidth="27300" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MyPc</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期格式为：
+年-月
+示例：
+2019-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>渠道内容必须与下拉可选填内容一致
+华为,华为海外,oppo,oppo海外,vivo,vivo海外,金立,金立海外,三星,魅族,努比亚,360,中兴</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须与渠道后台上架名称一致</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入备注信息，最多50字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +118,9 @@
   </si>
   <si>
     <t>结算金额</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -63,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -77,10 +142,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -91,6 +189,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,37 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,30 +218,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -174,57 +225,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -242,25 +306,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -462,6 +535,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,8 +589,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,50 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,144 +632,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1028,18 +1091,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="16384" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,22 +1145,26 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1107,5 +1174,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/text/主题结算数据录入模板.xlsx
+++ b/public/text/主题结算数据录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27300" windowHeight="13140"/>
+    <workbookView windowWidth="23340" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>MyPc</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,9 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,15 +151,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +176,36 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,39 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,9 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,46 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +515,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +574,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,21 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,144 +632,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,77 +1097,77 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="11.5" customWidth="1"/>
+    <col min="1" max="16384" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
